--- a/BD.xlsx
+++ b/BD.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -76,6 +76,18 @@
 G - Guanidine - C(Дополнение) 
 C - Cytidine     - G(Дополнение)
 </t>
+  </si>
+  <si>
+    <t>PROT</t>
+  </si>
+  <si>
+    <t>Перевод РНК в белок</t>
+  </si>
+  <si>
+    <t>20 часто встречающихся аминокислот сокращены с использованием 20 букв английского алфавита (все буквы, кроме B, J, O, U, X и Z). Белковые цепи построены из этих 20 символов.</t>
+  </si>
+  <si>
+    <t>Строка РНК длиной не более 1000 нт.</t>
   </si>
 </sst>
 </file>
@@ -403,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,6 +484,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
